--- a/Excel New/sumproduct & mod function.xlsx
+++ b/Excel New/sumproduct & mod function.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuntal\Desktop\data-analysis\Excel New\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5304B5-ACBE-4F94-9BD8-A105E1FF79F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F42DA9C-3B22-4916-AE5E-C356B164FD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,10 +154,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -183,16 +183,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -203,6 +200,9 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -218,14 +218,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{303A7E27-D834-4AAF-9834-168D12B1E377}" name="Table1" displayName="Table1" ref="A4:D10" totalsRowCount="1" headerRowDxfId="7" dataDxfId="5" totalsRowDxfId="6" headerRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{303A7E27-D834-4AAF-9834-168D12B1E377}" name="Product" displayName="Product" ref="A4:D9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" totalsRowDxfId="8" headerRowBorderDxfId="10">
   <autoFilter ref="A4:D9" xr:uid="{303A7E27-D834-4AAF-9834-168D12B1E377}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{FEAA3F37-68E8-4176-8D8E-EC60E036EFF9}" name="Books" dataDxfId="10" totalsRowDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{15B9898B-4048-46A8-B4E4-32A8D48638D9}" name="Price" dataDxfId="4" totalsRowDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{878B510E-5F49-431C-9E97-90861EEA52D2}" name="Qty" dataDxfId="9" totalsRowDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{20391EAD-598C-41C6-8256-0DEC34A1E989}" name="Total" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="0">
-      <calculatedColumnFormula>Table1[[#This Row],[Price]]*Table1[[#This Row],[Qty]]</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{FEAA3F37-68E8-4176-8D8E-EC60E036EFF9}" name="Books" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{15B9898B-4048-46A8-B4E4-32A8D48638D9}" name="Price" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{878B510E-5F49-431C-9E97-90861EEA52D2}" name="Qty" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{20391EAD-598C-41C6-8256-0DEC34A1E989}" name="Total" dataDxfId="1" totalsRowDxfId="0">
+      <calculatedColumnFormula>Product[[#This Row],[Price]]*Product[[#This Row],[Qty]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -495,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E19"/>
+  <dimension ref="A2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -511,12 +511,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -543,7 +543,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="1">
-        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Qty]]</f>
+        <f>Product[[#This Row],[Price]]*Product[[#This Row],[Qty]]</f>
         <v>1300</v>
       </c>
     </row>
@@ -558,7 +558,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="1">
-        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Qty]]</f>
+        <f>Product[[#This Row],[Price]]*Product[[#This Row],[Qty]]</f>
         <v>1050</v>
       </c>
     </row>
@@ -573,7 +573,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="1">
-        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Qty]]</f>
+        <f>Product[[#This Row],[Price]]*Product[[#This Row],[Qty]]</f>
         <v>780</v>
       </c>
     </row>
@@ -588,7 +588,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="1">
-        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Qty]]</f>
+        <f>Product[[#This Row],[Price]]*Product[[#This Row],[Qty]]</f>
         <v>840</v>
       </c>
     </row>
@@ -603,67 +603,58 @@
         <v>10</v>
       </c>
       <c r="D9" s="1">
-        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Qty]]</f>
+        <f>Product[[#This Row],[Price]]*Product[[#This Row],[Qty]]</f>
         <v>850</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1">
-        <f>SUBTOTAL(109,Table1[Total])</f>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D11" s="3">
+        <f>SUMPRODUCT(Product[Price],Product[Qty])</f>
         <v>4820</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D12" s="3">
-        <f>SUMPRODUCT(Table1[Price],Table1[Qty])</f>
-        <v>4820</v>
-      </c>
-      <c r="E12" s="4" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(D12)</f>
-        <v>=SUMPRODUCT(Table1[Price],Table1[Qty])</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="E11" s="4" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D11)</f>
+        <v>=SUMPRODUCT(Product[Price],Product[Qty])</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
         <v>215</v>
       </c>
-      <c r="B17" s="1">
-        <f>MOD(A17,2)</f>
+      <c r="B16" s="1">
+        <f>MOD(A16,2)</f>
         <v>1</v>
       </c>
-      <c r="C17" s="4" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B17)</f>
-        <v>=MOD(A17,2)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="str">
-        <f>IF(MOD(A17,2),"Odd","Even")</f>
+      <c r="C16" s="4" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B16)</f>
+        <v>=MOD(A16,2)</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="str">
+        <f>IF(MOD(A16,2),"Odd","Even")</f>
         <v>Odd</v>
       </c>
-      <c r="C19" s="4" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B19)</f>
-        <v>=IF(MOD(A17,2),"Odd","Even")</v>
+      <c r="C18" s="4" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B18)</f>
+        <v>=IF(MOD(A16,2),"Odd","Even")</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
